--- a/public/import/daily_template Kasir (1).xlsx
+++ b/public/import/daily_template Kasir (1).xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMPM RETAIL MEI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="144525" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>date</t>
   </si>
@@ -138,13 +133,16 @@
     <t>Mengirimkan rincian transaksi EDC dengan form penyamaan transaksi EDC Ke email Finance</t>
   </si>
   <si>
-    <t>2022-06-13</t>
-  </si>
-  <si>
     <t>Wajib menginformasikan jumlah coin yang ada di struk dan menawarkan redeem coin</t>
   </si>
   <si>
     <t>Memastikan input penjualan transaksi sesuai dengan sales person yang menjual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menginput transaksi penjualan sesuai dengan sales person </t>
+  </si>
+  <si>
+    <t>2022-08-24</t>
   </si>
 </sst>
 </file>
@@ -274,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +542,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -555,7 +553,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>23</v>
@@ -566,7 +564,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -577,7 +575,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -588,7 +586,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -599,7 +597,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -610,7 +608,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>37</v>
@@ -621,7 +619,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>38</v>
@@ -630,7 +628,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -641,7 +639,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -652,7 +650,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -663,7 +661,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -672,7 +670,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
@@ -681,7 +679,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
@@ -690,7 +688,7 @@
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -699,7 +697,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
@@ -708,7 +706,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>14</v>
@@ -717,7 +715,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
@@ -726,7 +724,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -735,7 +733,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
@@ -744,7 +742,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>18</v>
@@ -753,7 +751,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
@@ -762,16 +760,16 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -780,7 +778,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -789,7 +787,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>22</v>
@@ -798,7 +796,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>36</v>
@@ -807,12 +805,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C30" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
